--- a/Adult Income Decision Tree/Performance_metrics/model_perf_metrics_merged__6331_9495__1_2 .xlsx
+++ b/Adult Income Decision Tree/Performance_metrics/model_perf_metrics_merged__6331_9495__1_2 .xlsx
@@ -502,10 +502,10 @@
         <v>31655</v>
       </c>
       <c r="G2" t="n">
-        <v>0.671937984496124</v>
+        <v>0.6685254027261462</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7721219875088172</v>
+        <v>0.770081461131403</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>31655</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6182710347813537</v>
+        <v>0.6258111031002161</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7435660699037887</v>
+        <v>0.7486932520768662</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>31655</v>
       </c>
       <c r="G4" t="n">
-        <v>0.60901295384054</v>
+        <v>0.4711496746203905</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7236188018859573</v>
+        <v>0.6537977736337234</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -604,10 +604,10 @@
         <v>37986</v>
       </c>
       <c r="G5" t="n">
-        <v>0.617826973492572</v>
+        <v>0.6097597373526339</v>
       </c>
       <c r="H5" t="n">
-        <v>0.742616722877941</v>
+        <v>0.7356747351977769</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -638,10 +638,10 @@
         <v>37986</v>
       </c>
       <c r="G6" t="n">
-        <v>0.620739877658025</v>
+        <v>0.6181277860326895</v>
       </c>
       <c r="H6" t="n">
-        <v>0.744553941405101</v>
+        <v>0.7414068001839121</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -672,10 +672,10 @@
         <v>37986</v>
       </c>
       <c r="G7" t="n">
-        <v>0.626153170303119</v>
+        <v>0.6231603983945294</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7477416775424298</v>
+        <v>0.7446548646788531</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>37986</v>
       </c>
       <c r="G8" t="n">
-        <v>0.624467616390072</v>
+        <v>0.6125965537730245</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7464071143197389</v>
+        <v>0.7378207969340345</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>37986</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6152053597436644</v>
+        <v>0.6165810711665444</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7408732262034972</v>
+        <v>0.7412670382988688</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>44317</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6240881345838916</v>
+        <v>0.6201736007183478</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7451499141838036</v>
+        <v>0.7422332629859467</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -808,10 +808,10 @@
         <v>44317</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6156594224471569</v>
+        <v>0.6123493975903616</v>
       </c>
       <c r="H11" t="n">
-        <v>0.739676197357261</v>
+        <v>0.7367573186508153</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>44317</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6248144850103889</v>
+        <v>0.6116475558237778</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7458538068978515</v>
+        <v>0.7361890469404598</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>44317</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6342117016525234</v>
+        <v>0.6148271176204138</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7517364571761473</v>
+        <v>0.738180068367379</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>44317</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6140819964349377</v>
+        <v>0.6155706727135299</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7387894061976144</v>
+        <v>0.7385761079713393</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>41150</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6231734317343174</v>
+        <v>0.6163465832961145</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7451844548458306</v>
+        <v>0.740113146013188</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>41150</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6213191990577149</v>
+        <v>0.6196593964744548</v>
       </c>
       <c r="H16" t="n">
-        <v>0.744149148834699</v>
+        <v>0.7420266472854382</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>41150</v>
       </c>
       <c r="G17" t="n">
-        <v>0.627033422064478</v>
+        <v>0.6144668158090978</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7475715158767103</v>
+        <v>0.7387699868919687</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1046,10 +1046,10 @@
         <v>41150</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6301410541945064</v>
+        <v>0.629701204102869</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7492955932455087</v>
+        <v>0.7489167454386051</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1080,10 +1080,10 @@
         <v>41150</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6304283604135894</v>
+        <v>0.6188567186340014</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7498875822107737</v>
+        <v>0.7419341628423008</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>50645</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6287585590949688</v>
+        <v>0.6082362082362083</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7481999588767645</v>
+        <v>0.7321829726958852</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>50645</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6259404152873909</v>
+        <v>0.6158527308687053</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7455652160254963</v>
+        <v>0.7383306536595395</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1182,10 +1182,10 @@
         <v>50645</v>
       </c>
       <c r="G22" t="n">
-        <v>0.626538176426983</v>
+        <v>0.6017026451809061</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7470570470661142</v>
+        <v>0.7293656455348448</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         <v>50645</v>
       </c>
       <c r="G23" t="n">
-        <v>0.624567734175312</v>
+        <v>0.6122324159021407</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7447365257148731</v>
+        <v>0.7357024362661245</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>50645</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6170947874417906</v>
+        <v>0.6172270842929526</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7399838933994353</v>
+        <v>0.7385888447512187</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
